--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.5471930303679644</v>
+        <v>0.5484291154288146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.548241150447542</v>
+        <v>0.5449775863837693</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.5443559566891729</v>
+        <v>0.5470265175823418</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.5464135857990908</v>
+        <v>0.5486678588830807</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.5460805415511361</v>
+        <v>0.5447937599161985</v>
       </c>
     </row>
   </sheetData>
